--- a/input_data/data_ground_truth/3_cenarios_e_referencia_temporal/cenarios.xlsx
+++ b/input_data/data_ground_truth/3_cenarios_e_referencia_temporal/cenarios.xlsx
@@ -547,7 +547,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="140.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
@@ -566,7 +566,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="157.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="6"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>

--- a/input_data/data_ground_truth/3_cenarios_e_referencia_temporal/cenarios.xlsx
+++ b/input_data/data_ground_truth/3_cenarios_e_referencia_temporal/cenarios.xlsx
@@ -497,7 +497,7 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="82.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="87" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -522,7 +522,7 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="82.5" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="1">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -547,7 +547,7 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" s="3"/>
@@ -566,7 +566,7 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="6"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
@@ -585,7 +585,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="93">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -604,7 +604,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="204">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="6"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
